--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\IntelliJ Projects\OpenCart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\IntelliJ_Projects\OpenCart-TestNG\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D6EB8-22E7-4950-A700-9CED49A51CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FDCC51-6A6F-462D-8F3D-D3B715A49BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">

--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\IntelliJ_Projects\OpenCart-TestNG\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FDCC51-6A6F-462D-8F3D-D3B715A49BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BAA0C1-AA0C-4FDF-B16C-C937D85287A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,92 +495,92 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
